--- a/aerodynamics.xlsx
+++ b/aerodynamics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aerodynamics\AerodynamicDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996FB15F-4C91-435F-A61E-59522BE10219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500DF32C-2676-44E5-A541-9ED4178B6C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,12 +285,6 @@
     <t>CAMBER POSITION</t>
   </si>
   <si>
-    <t>MAX THICKNESS</t>
-  </si>
-  <si>
-    <t>MAX  THICKNESS POSITION</t>
-  </si>
-  <si>
     <t>ORDER (n)</t>
   </si>
   <si>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>MAX THICKNESS POS</t>
+  </si>
+  <si>
+    <t>MAX  THICKNESS</t>
   </si>
 </sst>
 </file>
@@ -583,6 +583,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -629,15 +638,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,34 +767,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0400000000000009</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9600000000000009</c:v>
+                  <c:v>13.866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.760000000000002</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.44</c:v>
+                  <c:v>20.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>21.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.44</c:v>
+                  <c:v>20.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.760000000000002</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9600000000000009</c:v>
+                  <c:v>13.866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0400000000000036</c:v>
+                  <c:v>7.8000000000000052</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2172489379008758E-15</c:v>
+                  <c:v>9.6219328800846874E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,34 +888,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.16</c:v>
+                  <c:v>-3.0000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.8400000000000007</c:v>
+                  <c:v>-5.3333333333333348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.0400000000000009</c:v>
+                  <c:v>-7.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.76</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6</c:v>
+                  <c:v>-8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.76</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.0400000000000009</c:v>
+                  <c:v>-7.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.8400000000000007</c:v>
+                  <c:v>-5.3333333333333348</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.1600000000000015</c:v>
+                  <c:v>-3.0000000000000022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.6645352591003753E-15</c:v>
+                  <c:v>-3.7007434154171879E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,31 +1365,31 @@
                   <c:v>6.2172489379008758E-15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.1600000000000015</c:v>
+                  <c:v>-3.0000000000000022</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.8400000000000007</c:v>
+                  <c:v>-5.3333333333333348</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.0400000000000009</c:v>
+                  <c:v>-7.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.76</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6</c:v>
+                  <c:v>-8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5.76</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-5.0400000000000009</c:v>
+                  <c:v>-7.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.8400000000000007</c:v>
+                  <c:v>-5.3333333333333348</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.16</c:v>
+                  <c:v>-3.0000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -5001,7 +5001,7 @@
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5010,7 +5010,7 @@
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="5" width="19.109375" customWidth="1"/>
     <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
@@ -5040,22 +5040,22 @@
         <v>78</v>
       </c>
       <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
         <v>79</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
         <v>80</v>
       </c>
-      <c r="J1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>82</v>
-      </c>
-      <c r="M1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5077,16 +5077,17 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H2">
+        <f>G2</f>
+        <v>45</v>
+      </c>
+      <c r="I2">
         <v>30</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -5101,19 +5102,19 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="26"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -5122,7 +5123,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B12" si="2">$L$2 * POWER(1-M3,4-$J$2-$K$2) * POWER(M3,$K$2) * $E$2 + $L$3 * POWER(1-M3,$J$2-$K$3) * POWER(M3,$K$3) * $E$3 + $L$4 * POWER(1-M3,$J$2-$K$4)  * POWER(M3,$K$4) * $E$4</f>
-        <v>5.0400000000000009</v>
+        <v>7.8</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5132,7 +5133,7 @@
       </c>
       <c r="E3">
         <f>I2/2 + (F2/G2 *I2)</f>
-        <v>14</v>
+        <v>21.666666666666664</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5145,17 +5146,17 @@
         <f>M2 + (1/10)</f>
         <v>0.1</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="29"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="36"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -5164,7 +5165,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="2"/>
-        <v>8.9600000000000009</v>
+        <v>13.866666666666667</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5186,17 +5187,17 @@
         <f t="shared" ref="M4:M12" si="3">M3 + (1/10)</f>
         <v>0.2</v>
       </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="32"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="39"/>
     </row>
     <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -5205,7 +5206,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="2"/>
-        <v>11.760000000000002</v>
+        <v>18.2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5233,12 +5234,12 @@
       <c r="P5" s="1">
         <v>100</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="42"/>
       <c r="U5" s="10" t="s">
         <v>5</v>
       </c>
@@ -5247,7 +5248,7 @@
       <c r="X5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="46"/>
+      <c r="Y5" s="26"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -5256,7 +5257,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="2"/>
-        <v>13.44</v>
+        <v>20.799999999999997</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5266,7 +5267,7 @@
       </c>
       <c r="E6">
         <f>-I2/2 + (F2/G2 *I2)</f>
-        <v>-6</v>
+        <v>-8.3333333333333339</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5285,17 +5286,17 @@
       <c r="P6" s="1">
         <v>4</v>
       </c>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="38"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="45"/>
       <c r="U6" s="13"/>
       <c r="V6" s="14"/>
       <c r="W6" s="15"/>
       <c r="X6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y6" s="46"/>
+      <c r="Y6" s="26"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -5304,7 +5305,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>21.666666666666664</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -5332,17 +5333,17 @@
       <c r="P7" s="1">
         <v>30</v>
       </c>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="45"/>
       <c r="U7" s="13"/>
       <c r="V7" s="14"/>
       <c r="W7" s="15"/>
-      <c r="X7" s="47" t="s">
+      <c r="X7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="Y7" s="46"/>
+      <c r="Y7" s="26"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -5351,7 +5352,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
-        <v>13.44</v>
+        <v>20.799999999999997</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -5366,15 +5367,15 @@
       <c r="P8" s="1">
         <v>4</v>
       </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="14"/>
       <c r="W8" s="15"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -5383,7 +5384,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="2"/>
-        <v>11.760000000000002</v>
+        <v>18.2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -5398,15 +5399,15 @@
       <c r="P9" s="1">
         <v>100</v>
       </c>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="45"/>
       <c r="U9" s="13"/>
       <c r="V9" s="14"/>
       <c r="W9" s="15"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -5415,7 +5416,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="2"/>
-        <v>8.9600000000000009</v>
+        <v>13.866666666666667</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5424,17 +5425,17 @@
         <f t="shared" si="3"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="38"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="14"/>
       <c r="W10" s="15"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -5443,7 +5444,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="2"/>
-        <v>5.0400000000000036</v>
+        <v>7.8000000000000052</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5452,17 +5453,17 @@
         <f>M10 + (1/10)</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="38"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="45"/>
       <c r="U11" s="13"/>
       <c r="V11" s="14"/>
       <c r="W11" s="15"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -5471,7 +5472,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="2"/>
-        <v>6.2172489379008758E-15</v>
+        <v>9.6219328800846874E-15</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -5480,17 +5481,17 @@
         <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="38"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="45"/>
       <c r="U12" s="13"/>
       <c r="V12" s="14"/>
       <c r="W12" s="15"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="e">
@@ -5504,17 +5505,17 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="O13" s="42"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="38"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="45"/>
       <c r="U13" s="13"/>
       <c r="V13" s="14"/>
       <c r="W13" s="15"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -5523,22 +5524,22 @@
       </c>
       <c r="B14">
         <f t="shared" ref="B14:B23" si="5">$L$5 * POWER(1-M3,4-$J$2-$K$5) * POWER(M3,$K$5) * $E$5 + $L$6 * POWER(1-M3,$J$2-$K$6) * POWER(M3,$K$6) * $E$6 + $L$7 * POWER(1-M3,$J$2-$K$7)  * POWER(M3,$K$7) * $E$7</f>
-        <v>-2.16</v>
+        <v>-3.0000000000000004</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="O14" s="42"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="38"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="45"/>
       <c r="U14" s="13"/>
       <c r="V14" s="14"/>
       <c r="W14" s="15"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -5547,7 +5548,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="5"/>
-        <v>-3.8400000000000007</v>
+        <v>-5.3333333333333348</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -5564,7 +5565,7 @@
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="20"/>
-      <c r="Y15" s="44"/>
+      <c r="Y15" s="24"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -5573,7 +5574,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="5"/>
-        <v>-5.0400000000000009</v>
+        <v>-7.0000000000000009</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5588,7 +5589,7 @@
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="20"/>
-      <c r="Y16" s="44"/>
+      <c r="Y16" s="24"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -5597,7 +5598,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="5"/>
-        <v>-5.76</v>
+        <v>-8</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -5612,7 +5613,7 @@
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="20"/>
-      <c r="Y17" s="44"/>
+      <c r="Y17" s="24"/>
     </row>
     <row r="18" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -5621,7 +5622,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="5"/>
-        <v>-6</v>
+        <v>-8.3333333333333339</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -5636,7 +5637,7 @@
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="20"/>
-      <c r="Y18" s="44"/>
+      <c r="Y18" s="24"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -5645,7 +5646,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="5"/>
-        <v>-5.76</v>
+        <v>-8</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5660,7 +5661,7 @@
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
       <c r="X19" s="23"/>
-      <c r="Y19" s="45"/>
+      <c r="Y19" s="25"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -5669,7 +5670,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="5"/>
-        <v>-5.0400000000000009</v>
+        <v>-7.0000000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
@@ -5679,7 +5680,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="5"/>
-        <v>-3.8400000000000007</v>
+        <v>-5.3333333333333348</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -5689,7 +5690,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="5"/>
-        <v>-2.1600000000000015</v>
+        <v>-3.0000000000000022</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -5699,7 +5700,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="5"/>
-        <v>-2.6645352591003753E-15</v>
+        <v>-3.7007434154171879E-15</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -5797,7 +5798,7 @@
       </c>
       <c r="B36">
         <f>INDEX($B$13:$B$23,ROWS(B14:$B$23))</f>
-        <v>-2.1600000000000015</v>
+        <v>-3.0000000000000022</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5807,7 +5808,7 @@
       </c>
       <c r="B37">
         <f>INDEX($B$13:$B$23,ROWS(B15:$B$23))</f>
-        <v>-3.8400000000000007</v>
+        <v>-5.3333333333333348</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -5817,7 +5818,7 @@
       </c>
       <c r="B38">
         <f>INDEX($B$13:$B$23,ROWS(B16:$B$23))</f>
-        <v>-5.0400000000000009</v>
+        <v>-7.0000000000000009</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5827,7 +5828,7 @@
       </c>
       <c r="B39">
         <f>INDEX($B$13:$B$23,ROWS(B17:$B$23))</f>
-        <v>-5.76</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5837,7 +5838,7 @@
       </c>
       <c r="B40">
         <f>INDEX($B$13:$B$23,ROWS(B18:$B$23))</f>
-        <v>-6</v>
+        <v>-8.3333333333333339</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -5847,7 +5848,7 @@
       </c>
       <c r="B41">
         <f>INDEX($B$13:$B$23,ROWS(B19:$B$23))</f>
-        <v>-5.76</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -5857,7 +5858,7 @@
       </c>
       <c r="B42">
         <f>INDEX($B$13:$B$23,ROWS(B20:$B$23))</f>
-        <v>-5.0400000000000009</v>
+        <v>-7.0000000000000009</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -5867,7 +5868,7 @@
       </c>
       <c r="B43">
         <f>INDEX($B$13:$B$23,ROWS(B21:$B$23))</f>
-        <v>-3.8400000000000007</v>
+        <v>-5.3333333333333348</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -5877,7 +5878,7 @@
       </c>
       <c r="B44">
         <f>INDEX($B$13:$B$23,ROWS(B22:$B$23))</f>
-        <v>-2.16</v>
+        <v>-3.0000000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
